--- a/biology/Botanique/Tangor/Tangor.xlsx
+++ b/biology/Botanique/Tangor/Tangor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tangor est un agrume hybride issu du croisement entre une tangerine, Citrus ×tangerina et un oranger doux (Citrus sinensis).
 </t>
@@ -511,28 +523,24 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hybrides de mandarine (Citrus reticulata):
-Ellendale est un vieux tangor australien découvert en 1878[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les hybrides de mandarine (Citrus reticulata):
+Ellendale est un vieux tangor australien découvert en 1878.
 La clémentine est un hybride Willowleaf  × orange douce
-Ortanique est un cultivar originaire de Jamaïque[2]. Ce cultivar a une aréole à la base du fruit caractéristique de la variété. Il est assez rustique (résiste jusqu'à -8 °C). Le mot-valise provient de la fusion de « Orange Tangerine Unique[3] »
-King (« King of Siam », anciennement Citrus nobilis) groupe de fruits vietnamiens créé par Webber en 1948[4] qui comprend notamment l'orange du Cambodge ou Cam sành,
+Ortanique est un cultivar originaire de Jamaïque. Ce cultivar a une aréole à la base du fruit caractéristique de la variété. Il est assez rustique (résiste jusqu'à -8 °C). Le mot-valise provient de la fusion de « Orange Tangerine Unique »
+King (« King of Siam », anciennement Citrus nobilis) groupe de fruits vietnamiens créé par Webber en 1948 qui comprend notamment l'orange du Cambodge ou Cam sành,
 Murcott (« Honey Murcott », « Murcott Honey orange », « Red », « Big Red », « Honey Bell tangelo »),
-Temple (« Magnet » du Japon), tangor naturel découvert à la Jamaïque en 1896[5].
+Temple (« Magnet » du Japon), tangor naturel découvert à la Jamaïque en 1896.
 Kuchinotsu No. 37 (Kiyomi x Encore)
 Pontianak (Indonésie)
 Setoka (Obtension japonaise, Murcott x Kuchinotsu No.37)
 Les hybrides de mandarine satsuma :
 Iyokan (Miyagawa × orange douce), Miyauchi Iyo, Othani Iyo
 Kiyomi (Miyagawa × Trovita navel), elle a donné Reikō
-Seto (Sugiyama Unshiu × Trovita navel)
-Hybrides de tangor
-Le tangor japonais Kiyomi (1949) a engendré de nombreux hybrides qui constituent des générations de fruits de haute qualité obtenues principalement à Ehimé[6]. Parmi les plus célèbres
-Dekopon, Kanpei, Setomi,
-double hybride Reikou ((Kiyomi x Encore) x (No. 5 x Marcott))
-Le tangor 'Temple' la mandarine 'Orha' [Temple ×  Dancy (Citrus tangerina)] dont la marque israélienne mandarine Orri est une sélection[7].
-</t>
+Seto (Sugiyama Unshiu × Trovita navel)</t>
         </is>
       </c>
     </row>
@@ -557,10 +565,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hybrides de tangor</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tangor japonais Kiyomi (1949) a engendré de nombreux hybrides qui constituent des générations de fruits de haute qualité obtenues principalement à Ehimé. Parmi les plus célèbres
+Dekopon, Kanpei, Setomi,
+double hybride Reikou ((Kiyomi x Encore) x (No. 5 x Marcott))
+Le tangor 'Temple' la mandarine 'Orha' [Temple ×  Dancy (Citrus tangerina)] dont la marque israélienne mandarine Orri est une sélection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tangor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tangor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les cultivateurs et surtout le lieu de production, le fruit produit par l'arbre peut prendre des noms commerciaux divers :
 Produit à Chypre, on le nomme Mandora (mandarine-orange). Il arrive à maturité en février/mars et est d'une couleur orangée très soutenue. Il produit 60 % de son poids en jus, légèrement acidulé ;
